--- a/Running projects/Meezan Bank Head Office/155 Quotation for Meezan bank.xlsx
+++ b/Running projects/Meezan Bank Head Office/155 Quotation for Meezan bank.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBF793A-54F0-419A-870E-26252D4D48B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29046013-E3A1-4D2B-9F34-CA36A3DC697D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$63</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Sincerely yours,</t>
   </si>
@@ -136,18 +136,12 @@
     <t>Testing, commissioning and air balancing.</t>
   </si>
   <si>
-    <t xml:space="preserve">Attn: Mr. </t>
-  </si>
-  <si>
     <t>Meezan Bank Limited</t>
   </si>
   <si>
     <t>Job</t>
   </si>
   <si>
-    <t>Providing and installation of PPRC pipe with related fittings</t>
-  </si>
-  <si>
     <t>a) 110 mm dia (for header)</t>
   </si>
   <si>
@@ -203,15 +197,52 @@
   </si>
   <si>
     <t>Providing and installation of Non return valve 2-1/2" dia with related fittings such as flange &amp; nut bolts gasket etc</t>
+  </si>
+  <si>
+    <t>Providing and installation of PPRC pipe and related fittings</t>
+  </si>
+  <si>
+    <t>Fittings:</t>
+  </si>
+  <si>
+    <t>a) PPR Equal Tee 110mm</t>
+  </si>
+  <si>
+    <t>a) PPR End cap     110mm</t>
+  </si>
+  <si>
+    <t>a) PPR Adaptor     90mm</t>
+  </si>
+  <si>
+    <t>a) PPR Elbow         90mm</t>
+  </si>
+  <si>
+    <t>a) PPR Socket        90mm</t>
+  </si>
+  <si>
+    <t>a) PPR Adaptor    75mm</t>
+  </si>
+  <si>
+    <t>a) PPR Flange       75mm</t>
+  </si>
+  <si>
+    <t>a) PPR  TEE            75mm</t>
+  </si>
+  <si>
+    <t>Rehabilitation of pump Room.</t>
+  </si>
+  <si>
+    <t>Attn: Mr. Zeeshan Ahmed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -387,7 +418,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -473,20 +504,21 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -510,16 +542,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>389885</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>814550</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>437510</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>166850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -548,7 +580,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10696575" y="6067425"/>
+          <a:off x="47625" y="17383125"/>
           <a:ext cx="723260" cy="557375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -562,13 +594,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -584,7 +616,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3819525" y="2876550"/>
+          <a:off x="3825875" y="3095625"/>
           <a:ext cx="1270" cy="158115"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1524" cy="158496"/>
@@ -724,13 +756,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -746,7 +778,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5286375" y="2876550"/>
+          <a:off x="5286375" y="3095625"/>
           <a:ext cx="1270" cy="158115"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1524" cy="158496"/>
@@ -886,13 +918,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1270</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -908,7 +940,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5286375" y="2876550"/>
+          <a:off x="5286375" y="3095625"/>
           <a:ext cx="1270" cy="158115"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="1524" cy="158496"/>
@@ -1046,16 +1078,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>78546</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>134178</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>162753</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1072,7 +1104,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="9372600" y="459546"/>
+          <a:off x="1428750" y="297621"/>
           <a:ext cx="4305300" cy="627132"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1158,16 +1190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>108502</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1195,8 +1227,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8505825" y="323850"/>
-          <a:ext cx="952500" cy="737152"/>
+          <a:off x="485775" y="85724"/>
+          <a:ext cx="952500" cy="771525"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1213,7 +1245,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>257175</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="723260" cy="557375"/>
@@ -1544,10 +1576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A10:L52"/>
+  <dimension ref="A10:L62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,7 +1597,7 @@
   <sheetData>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1575,7 +1607,7 @@
         <v>13</v>
       </c>
       <c r="H10" s="19">
-        <v>45584</v>
+        <v>45596</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1593,7 +1625,7 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12"/>
@@ -1609,8 +1641,10 @@
       <c r="E13"/>
       <c r="F13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="B14" s="14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -1618,119 +1652,102 @@
       <c r="F14"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B16" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C16" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D16" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E16" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31" t="s">
+      <c r="F16" s="34"/>
+      <c r="G16" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="31"/>
-    </row>
-    <row r="16" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="17" t="s">
+      <c r="H16" s="34"/>
+    </row>
+    <row r="17" spans="1:12" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="17" t="s">
+      <c r="F17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="28">
+      <c r="H17" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="28">
         <v>1</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="30">
+      <c r="B18" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="30">
         <v>1</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27">
+      <c r="E18" s="27"/>
+      <c r="F18" s="27">
         <v>30000</v>
       </c>
-      <c r="G17" s="27">
-        <f>E17*D17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
-        <f>F17*D17</f>
-        <v>30000</v>
-      </c>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
-        <v>2</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="30">
-        <v>4</v>
-      </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
       <c r="G18" s="27">
         <f>E18*D18</f>
         <v>0</v>
       </c>
       <c r="H18" s="27">
         <f>F18*D18</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="L18" s="26"/>
     </row>
-    <row r="19" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C19" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="27">
-        <v>120000</v>
+        <v>741600</v>
       </c>
       <c r="F19" s="27">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="G19" s="27">
         <f>E19*D19</f>
-        <v>240000</v>
+        <v>2966400</v>
       </c>
       <c r="H19" s="27">
         <f>F19*D19</f>
@@ -1738,32 +1755,44 @@
       </c>
       <c r="L19" s="26"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
+        <v>3</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="30">
+        <v>2</v>
+      </c>
+      <c r="E20" s="27">
+        <v>120000</v>
+      </c>
+      <c r="F20" s="27">
+        <v>30000</v>
+      </c>
+      <c r="G20" s="27">
+        <f>E20*D20</f>
+        <v>240000</v>
+      </c>
+      <c r="H20" s="27">
+        <f>F20*D20</f>
+        <v>60000</v>
+      </c>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="28">
         <v>4</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
       <c r="B21" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="30">
-        <v>10</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
       <c r="G21" s="27"/>
@@ -1773,504 +1802,836 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="29" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="30">
-        <v>80</v>
-      </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
+        <v>13</v>
+      </c>
+      <c r="E22" s="27">
+        <v>4070.0000000000005</v>
+      </c>
+      <c r="F22" s="27">
+        <v>500</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" ref="G22:G24" si="0">E22*D22</f>
+        <v>52910.000000000007</v>
+      </c>
+      <c r="H22" s="27">
+        <f t="shared" ref="H22:H24" si="1">F22*D22</f>
+        <v>6500</v>
+      </c>
+      <c r="I22" s="31"/>
       <c r="L22" s="26"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="28"/>
       <c r="B23" s="29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="30">
+        <v>80</v>
+      </c>
+      <c r="E23" s="27">
+        <v>3025.0000000000005</v>
+      </c>
+      <c r="F23" s="27">
+        <v>500</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="0"/>
+        <v>242000.00000000003</v>
+      </c>
+      <c r="H23" s="27">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="I23" s="31"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="30">
         <v>40</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28">
-        <v>5</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="30">
-        <v>6</v>
-      </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
+      <c r="E24" s="27">
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="F24" s="27">
+        <v>300</v>
+      </c>
       <c r="G24" s="27">
-        <f>E24*D24</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>79200.000000000015</v>
       </c>
       <c r="H24" s="27">
-        <f>F24*D24</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="I24" s="31"/>
       <c r="L24" s="26"/>
     </row>
-    <row r="25" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A25" s="28">
-        <v>6</v>
-      </c>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="28"/>
       <c r="B25" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="30">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
-      <c r="G25" s="27">
-        <f t="shared" ref="G25" si="0">E25*D25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
-        <f t="shared" ref="H25" si="1">F25*D25</f>
-        <v>0</v>
-      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="L25" s="26"/>
     </row>
-    <row r="26" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
-        <v>7</v>
-      </c>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="28"/>
       <c r="B26" s="29" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C26" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D26" s="30">
-        <v>12</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E26" s="27">
+        <v>18735</v>
+      </c>
+      <c r="F26" s="27">
+        <v>1000</v>
+      </c>
       <c r="G26" s="27">
-        <f t="shared" ref="G26:G29" si="2">E26*D26</f>
-        <v>0</v>
+        <f t="shared" ref="G26:G33" si="2">E26*D26</f>
+        <v>112410</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" ref="H26:H33" si="3">F26*D26</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="L26" s="26"/>
     </row>
-    <row r="27" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A27" s="28">
-        <v>8</v>
-      </c>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="28"/>
       <c r="B27" s="29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C27" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="30">
-        <v>6</v>
-      </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="27">
+        <v>7070</v>
+      </c>
+      <c r="F27" s="27">
+        <v>1000</v>
+      </c>
       <c r="G27" s="27">
-        <f>E27*D27</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7070</v>
       </c>
       <c r="H27" s="27">
-        <f>F27*D27</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>1000</v>
       </c>
       <c r="L27" s="26"/>
     </row>
-    <row r="28" spans="1:12" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="28">
-        <v>9</v>
-      </c>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="28"/>
       <c r="B28" s="29" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="30">
-        <v>6</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="E28" s="27">
+        <v>60050</v>
+      </c>
+      <c r="F28" s="27">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="27">
+        <f t="shared" si="2"/>
+        <v>720600</v>
+      </c>
+      <c r="H28" s="27">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
       <c r="L28" s="26"/>
     </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28">
-        <v>10</v>
-      </c>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="28"/>
       <c r="B29" s="29" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>22</v>
       </c>
       <c r="D29" s="30">
-        <v>10</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="27">
+        <v>8980</v>
+      </c>
+      <c r="F29" s="27">
+        <v>1000</v>
+      </c>
       <c r="G29" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>62860</v>
       </c>
       <c r="H29" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="L29" s="26"/>
     </row>
-    <row r="30" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A30" s="28">
-        <v>11</v>
-      </c>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="28"/>
       <c r="B30" s="29" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D30" s="30">
         <v>3</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="E30" s="27">
+        <v>3340</v>
+      </c>
+      <c r="F30" s="27">
+        <v>1000</v>
+      </c>
       <c r="G30" s="27">
-        <f t="shared" ref="G30:G33" si="4">E30*D30</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>10020</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L30" s="26"/>
     </row>
-    <row r="31" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="30">
         <v>12</v>
       </c>
-      <c r="B31" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" s="30">
-        <v>1</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="E31" s="27">
+        <v>39100</v>
+      </c>
+      <c r="F31" s="27">
+        <v>1000</v>
+      </c>
       <c r="G31" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>469200</v>
       </c>
       <c r="H31" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="L31" s="26"/>
     </row>
-    <row r="32" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28">
-        <v>13</v>
-      </c>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="28"/>
       <c r="B32" s="29" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D32" s="30">
-        <v>1</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+        <v>12</v>
+      </c>
+      <c r="E32" s="27">
+        <v>3750</v>
+      </c>
+      <c r="F32" s="27">
+        <v>1000</v>
+      </c>
       <c r="G32" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>45000</v>
       </c>
       <c r="H32" s="27">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="L32" s="26"/>
     </row>
-    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="28">
-        <v>14</v>
-      </c>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="28"/>
       <c r="B33" s="29" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33" s="30">
-        <v>1</v>
-      </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+        <v>6</v>
+      </c>
+      <c r="E33" s="27">
+        <v>8400</v>
+      </c>
+      <c r="F33" s="27">
+        <v>1000</v>
+      </c>
       <c r="G33" s="27">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>50400</v>
       </c>
       <c r="H33" s="27">
         <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="28">
+        <v>5</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" s="30">
+        <v>6</v>
+      </c>
+      <c r="E34" s="27">
+        <v>55000</v>
+      </c>
+      <c r="F34" s="27">
+        <v>5000</v>
+      </c>
+      <c r="G34" s="27">
+        <f>E34*D34</f>
+        <v>330000</v>
+      </c>
+      <c r="H34" s="27">
+        <f>F34*D34</f>
+        <v>30000</v>
+      </c>
+      <c r="L34" s="26"/>
+    </row>
+    <row r="35" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="28">
+        <v>6</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="30">
+        <v>2</v>
+      </c>
+      <c r="E35" s="27">
+        <v>27000</v>
+      </c>
+      <c r="F35" s="27">
+        <v>3000</v>
+      </c>
+      <c r="G35" s="27">
+        <f t="shared" ref="G35" si="4">E35*D35</f>
+        <v>54000</v>
+      </c>
+      <c r="H35" s="27">
+        <f t="shared" ref="H35" si="5">F35*D35</f>
+        <v>6000</v>
+      </c>
+      <c r="L35" s="26"/>
+    </row>
+    <row r="36" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A36" s="28">
+        <v>7</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="30">
+        <v>12</v>
+      </c>
+      <c r="E36" s="27">
+        <v>18800</v>
+      </c>
+      <c r="F36" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G36" s="27">
+        <f t="shared" ref="G36:G39" si="6">E36*D36</f>
+        <v>225600</v>
+      </c>
+      <c r="H36" s="27">
+        <f t="shared" ref="H36:H43" si="7">F36*D36</f>
+        <v>24000</v>
+      </c>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="28">
+        <v>8</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="30">
+        <v>6</v>
+      </c>
+      <c r="E37" s="27">
+        <v>57500</v>
+      </c>
+      <c r="F37" s="27">
+        <v>2000</v>
+      </c>
+      <c r="G37" s="27">
+        <f>E37*D37</f>
+        <v>345000</v>
+      </c>
+      <c r="H37" s="27">
+        <f>F37*D37</f>
+        <v>12000</v>
+      </c>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="28">
+        <v>9</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="30">
+        <v>6</v>
+      </c>
+      <c r="E38" s="27">
+        <v>9000</v>
+      </c>
+      <c r="F38" s="27">
+        <v>1500</v>
+      </c>
+      <c r="G38" s="27">
+        <f>E38*D38</f>
+        <v>54000</v>
+      </c>
+      <c r="H38" s="27">
+        <f>F38*D38</f>
+        <v>9000</v>
+      </c>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="28">
+        <v>10</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="30">
+        <v>10</v>
+      </c>
+      <c r="E39" s="27">
+        <v>11500</v>
+      </c>
+      <c r="F39" s="27">
+        <v>1000</v>
+      </c>
+      <c r="G39" s="27">
+        <f t="shared" si="6"/>
+        <v>115000</v>
+      </c>
+      <c r="H39" s="27">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="28">
+        <v>11</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="30">
+        <v>3</v>
+      </c>
+      <c r="E40" s="27">
+        <v>25000</v>
+      </c>
+      <c r="F40" s="27">
+        <v>5000</v>
+      </c>
+      <c r="G40" s="27">
+        <f t="shared" ref="G40:G43" si="8">E40*D40</f>
+        <v>75000</v>
+      </c>
+      <c r="H40" s="27">
+        <f t="shared" si="7"/>
+        <v>15000</v>
+      </c>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="28">
+        <v>12</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="30">
+        <v>1</v>
+      </c>
+      <c r="E41" s="27">
+        <v>565000</v>
+      </c>
+      <c r="F41" s="27">
+        <v>25000</v>
+      </c>
+      <c r="G41" s="27">
+        <f t="shared" si="8"/>
+        <v>565000</v>
+      </c>
+      <c r="H41" s="27">
+        <f t="shared" si="7"/>
+        <v>25000</v>
+      </c>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="28">
+        <v>13</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="30">
+        <v>1</v>
+      </c>
+      <c r="E42" s="27">
+        <v>660000</v>
+      </c>
+      <c r="F42" s="27">
+        <v>50000</v>
+      </c>
+      <c r="G42" s="27">
+        <f t="shared" si="8"/>
+        <v>660000</v>
+      </c>
+      <c r="H42" s="27">
+        <f t="shared" si="7"/>
+        <v>50000</v>
+      </c>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="28">
+        <v>14</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="30">
+        <v>1</v>
+      </c>
+      <c r="E43" s="27">
+        <v>60000</v>
+      </c>
+      <c r="F43" s="27">
+        <v>30000</v>
+      </c>
+      <c r="G43" s="27">
+        <f t="shared" si="8"/>
+        <v>60000</v>
+      </c>
+      <c r="H43" s="27">
+        <f t="shared" si="7"/>
+        <v>30000</v>
+      </c>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="28">
+        <v>15</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="30">
+        <v>1</v>
+      </c>
+      <c r="E44" s="27">
         <v>0</v>
       </c>
-      <c r="L33" s="26"/>
-    </row>
-    <row r="34" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="28">
-        <v>15</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" s="30">
-        <v>1</v>
-      </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27">
-        <f t="shared" ref="G34" si="5">E34*D34</f>
+      <c r="F44" s="27">
+        <v>40000</v>
+      </c>
+      <c r="G44" s="27">
+        <f t="shared" ref="G44" si="9">E44*D44</f>
         <v>0</v>
       </c>
-      <c r="H34" s="27">
-        <f t="shared" ref="H34" si="6">F34*D34</f>
+      <c r="H44" s="27">
+        <f t="shared" ref="H44" si="10">F44*D44</f>
+        <v>40000</v>
+      </c>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="23">
+        <f>SUM(G18:G44)</f>
+        <v>7541670</v>
+      </c>
+      <c r="H45" s="23">
+        <f>SUM(H18:H44)</f>
+        <v>518500</v>
+      </c>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+    </row>
+    <row r="46" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="21"/>
+      <c r="B46" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20">
+        <f>H45*15%</f>
+        <v>77775</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="20">
+        <f>G46+G45</f>
+        <v>7541670</v>
+      </c>
+      <c r="H47" s="20">
+        <f>H46+H45</f>
+        <v>596275</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="21"/>
+      <c r="B48" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22">
+        <f>H47+G47</f>
+        <v>8137945</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+    </row>
+    <row r="50" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+    </row>
+    <row r="51" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+    </row>
+    <row r="52" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="J52" s="16"/>
+    </row>
+    <row r="53" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B53" s="24"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="J53" s="16"/>
+    </row>
+    <row r="54" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="J54" s="16"/>
+    </row>
+    <row r="55" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="J55" s="16"/>
+    </row>
+    <row r="56" spans="1:10" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="L34" s="26"/>
-    </row>
-    <row r="35" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="23">
-        <f>SUM(G17:G34)</f>
-        <v>240000</v>
-      </c>
-      <c r="H35" s="23">
-        <f>SUM(H17:H34)</f>
-        <v>90000</v>
-      </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-    </row>
-    <row r="36" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20">
-        <f>H35*15%</f>
-        <v>13500</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="20">
-        <f>G36+G35</f>
-        <v>240000</v>
-      </c>
-      <c r="H37" s="20">
-        <f>H36+H35</f>
-        <v>103500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="21"/>
-      <c r="B38" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22">
-        <f>H37+G37</f>
-        <v>343500</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="4.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-    </row>
-    <row r="40" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
-    </row>
-    <row r="41" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-    </row>
-    <row r="42" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="J42" s="16"/>
-    </row>
-    <row r="43" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="J43" s="16"/>
-    </row>
-    <row r="44" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="J44" s="16"/>
-    </row>
-    <row r="45" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="J45" s="16"/>
-    </row>
-    <row r="46" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="J46" s="16"/>
-    </row>
-    <row r="47" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="10"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-    </row>
-    <row r="48" spans="1:12" ht="18.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="4"/>
-    </row>
-    <row r="49" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="25" t="s">
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-    </row>
-    <row r="51" spans="1:2" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:10" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="B38:F38"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="B48:F48"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:F16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.82677165354330717" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="34" max="7" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
